--- a/biology/Histoire de la zoologie et de la botanique/Isaac_Bayley_Balfour/Isaac_Bayley_Balfour.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Isaac_Bayley_Balfour/Isaac_Bayley_Balfour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isaac Bayley Balfour, né le 31 mars 1853 et mort le 30 novembre 1922, est un botaniste écossais. Il est le fils de John Hutton Balfour.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il participe à l'expédition astronomique de l'observation de Vénus à l'île Rodrigues en 1874 où il en profite pour herboriser et décrire la flore locale. Il conduit ensuite une expédition à Socotra en 1880. Il est professeur royal (Regius Professor) de botanique à Glasgow de 1879 à 1885, et professeur de botanique à l'université d'Édimbourg de 1888 à 1922. Isaac Bayley Balfour est devenu membre de la Royal Society le 12 juin 1884. Il reçoit la médaille linnéenne en 1919.
 </t>
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) The NASHTE project (Université d'Édimbourg) : Isaac Bayley Balfour
 </t>
